--- a/forms/vwr_enrichment_antibodies.xlsx
+++ b/forms/vwr_enrichment_antibodies.xlsx
@@ -818,7 +818,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/forms/vwr_enrichment_antibodies.xlsx
+++ b/forms/vwr_enrichment_antibodies.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="11_EE84CC1986E18AFBF0D08937CEB620617756F392" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2696D006-7D50-40DB-85AE-250267ABC4E8}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2850" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3915" yWindow="3930" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Antibodies" sheetId="1" r:id="rId1"/>
@@ -195,6 +195,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>US</t>
     </r>
@@ -204,6 +205,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Cat. No.</t>
     </r>
@@ -218,6 +220,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>CA</t>
     </r>
@@ -227,6 +230,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Cat. No. </t>
     </r>
@@ -241,6 +245,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>EU</t>
     </r>
@@ -250,6 +255,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Part No.</t>
     </r>
@@ -408,38 +414,45 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="0"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -816,9 +829,9 @@
   </sheetPr>
   <dimension ref="A1:AY1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
